--- a/SPPSApi/Doc/Template/FS9905_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS9905_Export.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F360152-A19B-4E72-8912-E8708629C471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FDFC46-A50C-4DD0-B6C2-7645BE2E0825}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>变更事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,66 @@
   </si>
   <si>
     <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型3年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型4年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型6年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型7年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型8年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型9年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型10年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型11年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型12年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型13年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型14年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型15年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -192,20 +252,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -544,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AS2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -581,145 +701,243 @@
     <col min="27" max="27" width="12.6328125" customWidth="1"/>
     <col min="28" max="28" width="14" customWidth="1"/>
     <col min="29" max="29" width="12.7265625" customWidth="1"/>
-    <col min="30" max="30" width="12.08984375" customWidth="1"/>
-    <col min="31" max="31" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.08984375" customWidth="1"/>
+    <col min="31" max="31" width="7.08984375" customWidth="1"/>
     <col min="32" max="32" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.08984375" customWidth="1"/>
-    <col min="36" max="36" width="15.6328125" customWidth="1"/>
-    <col min="37" max="37" width="6.1796875" customWidth="1"/>
-    <col min="38" max="38" width="7.453125" customWidth="1"/>
-    <col min="39" max="39" width="13.08984375" customWidth="1"/>
+    <col min="35" max="35" width="8.7265625" customWidth="1"/>
+    <col min="36" max="36" width="9.08984375" customWidth="1"/>
+    <col min="37" max="37" width="8" customWidth="1"/>
+    <col min="38" max="38" width="8.26953125" customWidth="1"/>
+    <col min="39" max="39" width="7.81640625" customWidth="1"/>
     <col min="40" max="40" width="8.54296875" customWidth="1"/>
     <col min="55" max="55" width="11.6328125" customWidth="1"/>
     <col min="57" max="58" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="3" t="s">
+    <row r="2" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="43">
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AC1:AC2"/>
@@ -729,24 +947,6 @@
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
